--- a/docs/eDNA/example_output/Results_rawreads_long.xlsx
+++ b/docs/eDNA/example_output/Results_rawreads_long.xlsx
@@ -1842,17 +1842,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Urophycis sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Red White or Spotted hake</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="E38">
-        <v>1025</v>
+        <v>298</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1882,17 +1882,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Urophycis sp</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Red White or Spotted hake</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="E39">
-        <v>298</v>
+        <v>1025</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2202,17 +2202,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Urophycis sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Red White or Spotted hake</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E47">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2242,17 +2242,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Urophycis sp</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Red White or Spotted hake</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="E48">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
